--- a/biology/Botanique/Souvenir_de_Thérèse_Levet/Souvenir_de_Thérèse_Levet.xlsx
+++ b/biology/Botanique/Souvenir_de_Thérèse_Levet/Souvenir_de_Thérèse_Levet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Souvenir_de_Th%C3%A9r%C3%A8se_Levet</t>
+          <t>Souvenir_de_Thérèse_Levet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Souvenir de Thérèse Levet' est un cultivar de rosier thé obtenu en 1882 par le rosiériste français Antoine Levet. Il est issu d'un croisement 'Adam' (Adam, 1838) × 'Safrano à fleurs rouges' (Oger, 1867). Il est dédié à la mémoire de la fille de l'obtenteur. Sa couleur franche a été tout de suite mise en avant par les catalogues de l'époque[1] et a remporté d'emblée un certain succès.
+'Souvenir de Thérèse Levet' est un cultivar de rosier thé obtenu en 1882 par le rosiériste français Antoine Levet. Il est issu d'un croisement 'Adam' (Adam, 1838) × 'Safrano à fleurs rouges' (Oger, 1867). Il est dédié à la mémoire de la fille de l'obtenteur. Sa couleur franche a été tout de suite mise en avant par les catalogues de l'époque et a remporté d'emblée un certain succès.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Souvenir_de_Th%C3%A9r%C3%A8se_Levet</t>
+          <t>Souvenir_de_Thérèse_Levet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son buisson bien ramifié au feuillage foncé et aux aiguillons crochus peut s'élever à 150 cm. Ses fleurs rouges sont grosses et doubles (17-25 pétales) en forme de coupe et légèrement parfumées. La floraison est remontante[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son buisson bien ramifié au feuillage foncé et aux aiguillons crochus peut s'élever à 150 cm. Ses fleurs rouges sont grosses et doubles (17-25 pétales) en forme de coupe et légèrement parfumées. La floraison est remontante.
 Sa zone de rusticité est de 7b à 9b; il ne supporte donc pas les hivers froids et est mieux adapté au climat méditerranéen. Il se plaît dans des situations ensoleillées et supporte la mi-ombre dans les régions aux étés chauds.
 Cette rose est toujours commercialisée, surtout sous les climats doux.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Souvenir_de_Th%C3%A9r%C3%A8se_Levet</t>
+          <t>Souvenir_de_Thérèse_Levet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par croisement avec 'Reine Emma des Pays-Bas' (Nabonnand, 1879), il a donné naissance à 'Général Galliéni' (Nabonnand, 1899).
 </t>
